--- a/2020/Others/Adding New Retailer Format/Retailer name change format.xlsx
+++ b/2020/Others/Adding New Retailer Format/Retailer name change format.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Transaction Method</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Number</t>
   </si>
   <si>
-    <t>bKash</t>
-  </si>
-  <si>
     <t>Retail Code</t>
   </si>
   <si>
@@ -34,37 +31,19 @@
     <t>Retail New Name</t>
   </si>
   <si>
-    <t>RET-29330</t>
-  </si>
-  <si>
-    <t>Natore Telecom</t>
-  </si>
-  <si>
-    <t>Hello Natore</t>
-  </si>
-  <si>
-    <t>T M Electronics &amp; Mobile Plus</t>
-  </si>
-  <si>
-    <t>RET-33099</t>
-  </si>
-  <si>
-    <t>Rimi Telecom</t>
-  </si>
-  <si>
     <t>Retailer New Name</t>
   </si>
   <si>
-    <t>Md Robiul Islam</t>
-  </si>
-  <si>
-    <t>RET-07938</t>
-  </si>
-  <si>
-    <t>S.R Computer</t>
-  </si>
-  <si>
-    <t>Siraj Electronics</t>
+    <t>RET-18554</t>
+  </si>
+  <si>
+    <t>Moon Electronics</t>
+  </si>
+  <si>
+    <t>Rouf Telecom</t>
+  </si>
+  <si>
+    <t>Bagha Bazar</t>
   </si>
 </sst>
 </file>
@@ -461,7 +440,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -475,16 +454,16 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="15.75">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>0</v>
@@ -503,40 +482,24 @@
       <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1727608308</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>

--- a/2020/Others/Adding New Retailer Format/Retailer name change format.xlsx
+++ b/2020/Others/Adding New Retailer Format/Retailer name change format.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Transaction Method</t>
   </si>
@@ -25,25 +25,28 @@
     <t>Retail Code</t>
   </si>
   <si>
-    <t>Retail Old Name</t>
-  </si>
-  <si>
-    <t>Retail New Name</t>
-  </si>
-  <si>
     <t>Retailer New Name</t>
   </si>
   <si>
-    <t>RET-18554</t>
-  </si>
-  <si>
-    <t>Moon Electronics</t>
-  </si>
-  <si>
-    <t>Rouf Telecom</t>
-  </si>
-  <si>
-    <t>Bagha Bazar</t>
+    <t>bKash</t>
+  </si>
+  <si>
+    <t>T.M Mobile Corner</t>
+  </si>
+  <si>
+    <t>T.M Electronics &amp; Mobile</t>
+  </si>
+  <si>
+    <t>T.M Mofidul Islam</t>
+  </si>
+  <si>
+    <t>RET-07923</t>
+  </si>
+  <si>
+    <t>Old Retail Name</t>
+  </si>
+  <si>
+    <t>New Retail Name</t>
   </si>
 </sst>
 </file>
@@ -440,14 +443,15 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
     <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
   </cols>
@@ -457,13 +461,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>0</v>
@@ -474,19 +478,23 @@
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1705483675</v>
+      </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1">
       <c r="A3" s="1"/>

--- a/2020/Others/Adding New Retailer Format/Retailer name change format.xlsx
+++ b/2020/Others/Adding New Retailer Format/Retailer name change format.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Transaction Method</t>
   </si>
@@ -28,25 +28,22 @@
     <t>Retailer New Name</t>
   </si>
   <si>
-    <t>bKash</t>
-  </si>
-  <si>
-    <t>T.M Mobile Corner</t>
-  </si>
-  <si>
-    <t>T.M Electronics &amp; Mobile</t>
-  </si>
-  <si>
-    <t>T.M Mofidul Islam</t>
-  </si>
-  <si>
-    <t>RET-07923</t>
-  </si>
-  <si>
     <t>Old Retail Name</t>
   </si>
   <si>
     <t>New Retail Name</t>
+  </si>
+  <si>
+    <t>RET-36547</t>
+  </si>
+  <si>
+    <t>Bismillah Mobile Shop 2</t>
+  </si>
+  <si>
+    <t>Jewel Telecom</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -443,7 +440,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -461,10 +458,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -478,22 +475,22 @@
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1705483675</v>
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1">

--- a/2020/Others/Adding New Retailer Format/Retailer name change format.xlsx
+++ b/2020/Others/Adding New Retailer Format/Retailer name change format.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Transaction Method</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>RET-36436</t>
+  </si>
+  <si>
+    <t>Ma Telecom</t>
   </si>
 </sst>
 </file>
@@ -440,7 +446,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -478,10 +484,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
@@ -494,12 +500,24 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1"/>
